--- a/Code/Results/Cases/Case_5_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_143/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.025265702246309</v>
+        <v>1.05829982881462</v>
       </c>
       <c r="D2">
-        <v>1.04116492618803</v>
+        <v>1.062805529706472</v>
       </c>
       <c r="E2">
-        <v>1.027769687212938</v>
+        <v>1.054319396435029</v>
       </c>
       <c r="F2">
-        <v>1.042616503231315</v>
+        <v>1.070992466017058</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053123947895774</v>
+        <v>1.049024709399867</v>
       </c>
       <c r="J2">
-        <v>1.046716115751985</v>
+        <v>1.063291768304709</v>
       </c>
       <c r="K2">
-        <v>1.052079078252905</v>
+        <v>1.065525881468979</v>
       </c>
       <c r="L2">
-        <v>1.038855241511172</v>
+        <v>1.057062934024869</v>
       </c>
       <c r="M2">
-        <v>1.053512411144991</v>
+        <v>1.073690826046026</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031485703318353</v>
+        <v>1.059565133249015</v>
       </c>
       <c r="D3">
-        <v>1.046178868786474</v>
+        <v>1.063843583855984</v>
       </c>
       <c r="E3">
-        <v>1.032925418011219</v>
+        <v>1.055409297003093</v>
       </c>
       <c r="F3">
-        <v>1.048403238845372</v>
+        <v>1.072223708514826</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05542174516455</v>
+        <v>1.049423142949388</v>
       </c>
       <c r="J3">
-        <v>1.051153345699837</v>
+        <v>1.064208366506541</v>
       </c>
       <c r="K3">
-        <v>1.056253105187107</v>
+        <v>1.066378262494624</v>
       </c>
       <c r="L3">
-        <v>1.043153655996671</v>
+        <v>1.057965346930625</v>
       </c>
       <c r="M3">
-        <v>1.058452099365774</v>
+        <v>1.074737511571483</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03540858578696</v>
+        <v>1.060383472150324</v>
       </c>
       <c r="D4">
-        <v>1.049343943268259</v>
+        <v>1.064514882631411</v>
       </c>
       <c r="E4">
-        <v>1.036182331165407</v>
+        <v>1.056114403460226</v>
       </c>
       <c r="F4">
-        <v>1.052058972972872</v>
+        <v>1.073020403565456</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056860908185962</v>
+        <v>1.049679519781438</v>
       </c>
       <c r="J4">
-        <v>1.053947946319447</v>
+        <v>1.064800548694466</v>
       </c>
       <c r="K4">
-        <v>1.058881185957813</v>
+        <v>1.066928812330584</v>
       </c>
       <c r="L4">
-        <v>1.045862831621067</v>
+        <v>1.058548542978494</v>
       </c>
       <c r="M4">
-        <v>1.061567209986335</v>
+        <v>1.075414216735087</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037034515592441</v>
+        <v>1.06072740925537</v>
       </c>
       <c r="D5">
-        <v>1.050656393900957</v>
+        <v>1.064797004348008</v>
       </c>
       <c r="E5">
-        <v>1.037533429467686</v>
+        <v>1.056410800140437</v>
       </c>
       <c r="F5">
-        <v>1.053575584870563</v>
+        <v>1.073355335811716</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057454949850932</v>
+        <v>1.04978695752508</v>
       </c>
       <c r="J5">
-        <v>1.055105247498127</v>
+        <v>1.065049283917758</v>
       </c>
       <c r="K5">
-        <v>1.059969337047491</v>
+        <v>1.067160026081102</v>
       </c>
       <c r="L5">
-        <v>1.046985230064323</v>
+        <v>1.05879354639089</v>
       </c>
       <c r="M5">
-        <v>1.062858213427549</v>
+        <v>1.075698568768252</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.037306184656748</v>
+        <v>1.060785152456983</v>
       </c>
       <c r="D6">
-        <v>1.050875719224101</v>
+        <v>1.064844368456689</v>
       </c>
       <c r="E6">
-        <v>1.037759246636925</v>
+        <v>1.056460564728628</v>
       </c>
       <c r="F6">
-        <v>1.053829069694656</v>
+        <v>1.073411572562233</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057554059977673</v>
+        <v>1.049804976699489</v>
       </c>
       <c r="J6">
-        <v>1.05529855624626</v>
+        <v>1.065091034910238</v>
       </c>
       <c r="K6">
-        <v>1.060151083861892</v>
+        <v>1.067198834007942</v>
       </c>
       <c r="L6">
-        <v>1.047172736521654</v>
+        <v>1.058834673486236</v>
       </c>
       <c r="M6">
-        <v>1.0630739121813</v>
+        <v>1.075746304870244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035430401447267</v>
+        <v>1.060388068215194</v>
       </c>
       <c r="D7">
-        <v>1.049361550539319</v>
+        <v>1.064518652716384</v>
       </c>
       <c r="E7">
-        <v>1.036200454675346</v>
+        <v>1.056118364043415</v>
       </c>
       <c r="F7">
-        <v>1.052079316382928</v>
+        <v>1.073024878937642</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056868888406876</v>
+        <v>1.04968095671691</v>
       </c>
       <c r="J7">
-        <v>1.053963478188938</v>
+        <v>1.064803873161908</v>
       </c>
       <c r="K7">
-        <v>1.058895790548139</v>
+        <v>1.066931902751055</v>
       </c>
       <c r="L7">
-        <v>1.04587789320466</v>
+        <v>1.058551817400908</v>
       </c>
       <c r="M7">
-        <v>1.06158453239665</v>
+        <v>1.075418016788457</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027389585216905</v>
+        <v>1.058727528300927</v>
       </c>
       <c r="D8">
-        <v>1.042876347051516</v>
+        <v>1.063156426956003</v>
       </c>
       <c r="E8">
-        <v>1.029529017314206</v>
+        <v>1.054687761718182</v>
       </c>
       <c r="F8">
-        <v>1.04459112186294</v>
+        <v>1.071408571589318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053910636140665</v>
+        <v>1.049159659752623</v>
       </c>
       <c r="J8">
-        <v>1.048232045501676</v>
+        <v>1.063601728051216</v>
       </c>
       <c r="K8">
-        <v>1.053505239743345</v>
+        <v>1.065814155076808</v>
       </c>
       <c r="L8">
-        <v>1.040323320457917</v>
+        <v>1.057368059783578</v>
       </c>
       <c r="M8">
-        <v>1.055199144506681</v>
+        <v>1.074044677458174</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012384868788768</v>
+        <v>1.055798280867717</v>
       </c>
       <c r="D9">
-        <v>1.030800840053808</v>
+        <v>1.060752944710536</v>
       </c>
       <c r="E9">
-        <v>1.017125242029969</v>
+        <v>1.052165776217299</v>
       </c>
       <c r="F9">
-        <v>1.030669693763952</v>
+        <v>1.068560335779566</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048311877095615</v>
+        <v>1.048230032259354</v>
       </c>
       <c r="J9">
-        <v>1.037507739859324</v>
+        <v>1.061476289313149</v>
       </c>
       <c r="K9">
-        <v>1.043413206923721</v>
+        <v>1.063836834619051</v>
       </c>
       <c r="L9">
-        <v>1.029946452702608</v>
+        <v>1.055276505520702</v>
       </c>
       <c r="M9">
-        <v>1.043284029901314</v>
+        <v>1.071620232053621</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001734559203669</v>
+        <v>1.053843154642078</v>
       </c>
       <c r="D10">
-        <v>1.022252939241389</v>
+        <v>1.05914846583679</v>
       </c>
       <c r="E10">
-        <v>1.008357193703426</v>
+        <v>1.05048362545457</v>
       </c>
       <c r="F10">
-        <v>1.020828239422676</v>
+        <v>1.066661323766711</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044287897842299</v>
+        <v>1.047602810429161</v>
       </c>
       <c r="J10">
-        <v>1.029879526192774</v>
+        <v>1.060054447838836</v>
       </c>
       <c r="K10">
-        <v>1.036231706981738</v>
+        <v>1.062513346522864</v>
       </c>
       <c r="L10">
-        <v>1.0225771782573</v>
+        <v>1.053878261542364</v>
       </c>
       <c r="M10">
-        <v>1.034831348185143</v>
+        <v>1.070000834847552</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9969477900296707</v>
+        <v>1.052995981265158</v>
       </c>
       <c r="D11">
-        <v>1.018417950635182</v>
+        <v>1.058453174997814</v>
       </c>
       <c r="E11">
-        <v>1.004426258220743</v>
+        <v>1.049755016404325</v>
       </c>
       <c r="F11">
-        <v>1.016415633157784</v>
+        <v>1.065838957660855</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042468266220151</v>
+        <v>1.047329432996013</v>
       </c>
       <c r="J11">
-        <v>1.0264480980821</v>
+        <v>1.059437592734008</v>
       </c>
       <c r="K11">
-        <v>1.03300069369187</v>
+        <v>1.061938989129665</v>
       </c>
       <c r="L11">
-        <v>1.019265181767522</v>
+        <v>1.053271865792037</v>
       </c>
       <c r="M11">
-        <v>1.031034475309713</v>
+        <v>1.069298857213029</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9951413988493524</v>
+        <v>1.052681211232781</v>
       </c>
       <c r="D12">
-        <v>1.016971888898762</v>
+        <v>1.058194829759054</v>
       </c>
       <c r="E12">
-        <v>1.002944434361814</v>
+        <v>1.049484342428952</v>
       </c>
       <c r="F12">
-        <v>1.014752143830841</v>
+        <v>1.065533479511559</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041780002344668</v>
+        <v>1.047227619014622</v>
       </c>
       <c r="J12">
-        <v>1.025152816340318</v>
+        <v>1.05920828458193</v>
       </c>
       <c r="K12">
-        <v>1.031781000980681</v>
+        <v>1.061725453232273</v>
       </c>
       <c r="L12">
-        <v>1.018015440235214</v>
+        <v>1.05304647919293</v>
       </c>
       <c r="M12">
-        <v>1.029602070305706</v>
+        <v>1.06903799380086</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9955301952656634</v>
+        <v>1.052748734695843</v>
       </c>
       <c r="D13">
-        <v>1.017283076010417</v>
+        <v>1.058250249489782</v>
       </c>
       <c r="E13">
-        <v>1.003263298657373</v>
+        <v>1.049542404584044</v>
       </c>
       <c r="F13">
-        <v>1.015110104206168</v>
+        <v>1.065599006320379</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04192821034792</v>
+        <v>1.047249470668729</v>
       </c>
       <c r="J13">
-        <v>1.025431619485855</v>
+        <v>1.059257480170846</v>
       </c>
       <c r="K13">
-        <v>1.032043536495012</v>
+        <v>1.061771266216671</v>
       </c>
       <c r="L13">
-        <v>1.018284420166658</v>
+        <v>1.053094831941229</v>
       </c>
       <c r="M13">
-        <v>1.029910351258507</v>
+        <v>1.069093955249595</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9967990646447153</v>
+        <v>1.052969964174749</v>
       </c>
       <c r="D14">
-        <v>1.018298868025169</v>
+        <v>1.058431821809929</v>
       </c>
       <c r="E14">
-        <v>1.004304222198898</v>
+        <v>1.049732643158233</v>
       </c>
       <c r="F14">
-        <v>1.016278638068242</v>
+        <v>1.065813707057578</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042411631222065</v>
+        <v>1.04732102252304</v>
       </c>
       <c r="J14">
-        <v>1.026341460569225</v>
+        <v>1.059418641749398</v>
       </c>
       <c r="K14">
-        <v>1.032900280416802</v>
+        <v>1.0619213421543</v>
       </c>
       <c r="L14">
-        <v>1.019162284099095</v>
+        <v>1.053253238218802</v>
       </c>
       <c r="M14">
-        <v>1.030916531999506</v>
+        <v>1.069277296575547</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9975770320326379</v>
+        <v>1.053106258650885</v>
       </c>
       <c r="D15">
-        <v>1.018921824807946</v>
+        <v>1.05854368341586</v>
       </c>
       <c r="E15">
-        <v>1.004942646077385</v>
+        <v>1.049849850572197</v>
       </c>
       <c r="F15">
-        <v>1.016995315445877</v>
+        <v>1.065945989235688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042707819054973</v>
+        <v>1.047365072247827</v>
       </c>
       <c r="J15">
-        <v>1.026899256520668</v>
+        <v>1.059517914707541</v>
       </c>
       <c r="K15">
-        <v>1.033425516384784</v>
+        <v>1.062013783129237</v>
       </c>
       <c r="L15">
-        <v>1.019700536504195</v>
+        <v>1.0533508183855</v>
       </c>
       <c r="M15">
-        <v>1.031533499488858</v>
+        <v>1.069390243557461</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00204838055518</v>
+        <v>1.053899366014892</v>
       </c>
       <c r="D16">
-        <v>1.022504514221533</v>
+        <v>1.059194598433305</v>
       </c>
       <c r="E16">
-        <v>1.008615120793063</v>
+        <v>1.050531975884755</v>
       </c>
       <c r="F16">
-        <v>1.021117759893989</v>
+        <v>1.066715899566037</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044406969849278</v>
+        <v>1.047620915863902</v>
       </c>
       <c r="J16">
-        <v>1.030104437074628</v>
+        <v>1.060095361258713</v>
       </c>
       <c r="K16">
-        <v>1.036443472170625</v>
+        <v>1.062551437633748</v>
       </c>
       <c r="L16">
-        <v>1.022794323474301</v>
+        <v>1.053918485914416</v>
       </c>
       <c r="M16">
-        <v>1.035080325185419</v>
+        <v>1.070047406416303</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004804865083704</v>
+        <v>1.054396700764739</v>
       </c>
       <c r="D17">
-        <v>1.02471504125808</v>
+        <v>1.059602754003413</v>
       </c>
       <c r="E17">
-        <v>1.01088178128817</v>
+        <v>1.050959792920843</v>
       </c>
       <c r="F17">
-        <v>1.023662010164536</v>
+        <v>1.067198820401245</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045451607955937</v>
+        <v>1.047780920824021</v>
       </c>
       <c r="J17">
-        <v>1.032079643441456</v>
+        <v>1.060457258540783</v>
       </c>
       <c r="K17">
-        <v>1.038303172481185</v>
+        <v>1.062888350493731</v>
       </c>
       <c r="L17">
-        <v>1.024701666202137</v>
+        <v>1.054274313869271</v>
       </c>
       <c r="M17">
-        <v>1.03726749978293</v>
+        <v>1.070459420099469</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006395929971316</v>
+        <v>1.054686730932832</v>
       </c>
       <c r="D18">
-        <v>1.025991613293716</v>
+        <v>1.05984077218973</v>
       </c>
       <c r="E18">
-        <v>1.01219103721979</v>
+        <v>1.051209309631522</v>
       </c>
       <c r="F18">
-        <v>1.02513156664188</v>
+        <v>1.067480492275732</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046053532823403</v>
+        <v>1.047874076736605</v>
       </c>
       <c r="J18">
-        <v>1.033219465509407</v>
+        <v>1.060668232590141</v>
       </c>
       <c r="K18">
-        <v>1.039376288702782</v>
+        <v>1.063084742858169</v>
       </c>
       <c r="L18">
-        <v>1.025802603959455</v>
+        <v>1.054481771068648</v>
       </c>
       <c r="M18">
-        <v>1.038530152657268</v>
+        <v>1.070699666769242</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006935660817186</v>
+        <v>1.054785614195624</v>
       </c>
       <c r="D19">
-        <v>1.026424764663097</v>
+        <v>1.059921921471272</v>
       </c>
       <c r="E19">
-        <v>1.012635324004129</v>
+        <v>1.051294384758562</v>
       </c>
       <c r="F19">
-        <v>1.025630244389126</v>
+        <v>1.067576533879623</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046257541487372</v>
+        <v>1.047905811306888</v>
       </c>
       <c r="J19">
-        <v>1.033606072649457</v>
+        <v>1.060740149930533</v>
       </c>
       <c r="K19">
-        <v>1.039740261218734</v>
+        <v>1.063151686739307</v>
       </c>
       <c r="L19">
-        <v>1.026176068898662</v>
+        <v>1.054552493197638</v>
       </c>
       <c r="M19">
-        <v>1.038958508334861</v>
+        <v>1.070781572202055</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004510866719926</v>
+        <v>1.054343347351132</v>
       </c>
       <c r="D20">
-        <v>1.02447920595657</v>
+        <v>1.059558968172984</v>
       </c>
       <c r="E20">
-        <v>1.010639929581826</v>
+        <v>1.050913894465241</v>
       </c>
       <c r="F20">
-        <v>1.02339054401693</v>
+        <v>1.067147008379681</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045340298377192</v>
+        <v>1.047763771633393</v>
       </c>
       <c r="J20">
-        <v>1.031869002664564</v>
+        <v>1.060418442248569</v>
       </c>
       <c r="K20">
-        <v>1.038104854766711</v>
+        <v>1.062852215691141</v>
       </c>
       <c r="L20">
-        <v>1.024498233659417</v>
+        <v>1.054236146348346</v>
       </c>
       <c r="M20">
-        <v>1.037034201035506</v>
+        <v>1.070415222596185</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9964262150921236</v>
+        <v>1.052904820177165</v>
       </c>
       <c r="D21">
-        <v>1.018000350933638</v>
+        <v>1.058378355601791</v>
       </c>
       <c r="E21">
-        <v>1.003998308154655</v>
+        <v>1.04967662365388</v>
       </c>
       <c r="F21">
-        <v>1.015935223764727</v>
+        <v>1.065750483469658</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042269623918805</v>
+        <v>1.047299959731523</v>
       </c>
       <c r="J21">
-        <v>1.02607411843671</v>
+        <v>1.059371188686987</v>
       </c>
       <c r="K21">
-        <v>1.032648541609786</v>
+        <v>1.061877153901822</v>
       </c>
       <c r="L21">
-        <v>1.018904325237031</v>
+        <v>1.053206595515115</v>
       </c>
       <c r="M21">
-        <v>1.030620859310162</v>
+        <v>1.069223310391195</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9911777374500291</v>
+        <v>1.051999826402817</v>
       </c>
       <c r="D22">
-        <v>1.01380115175781</v>
+        <v>1.057635574887797</v>
       </c>
       <c r="E22">
-        <v>0.9996960414427229</v>
+        <v>1.048898492299277</v>
       </c>
       <c r="F22">
-        <v>1.011105309151848</v>
+        <v>1.064872346161674</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040266949770717</v>
+        <v>1.047006783407008</v>
       </c>
       <c r="J22">
-        <v>1.022310092291097</v>
+        <v>1.058711692253058</v>
       </c>
       <c r="K22">
-        <v>1.029104074998404</v>
+        <v>1.061262970534694</v>
       </c>
       <c r="L22">
-        <v>1.0152735222173</v>
+        <v>1.052558440669093</v>
       </c>
       <c r="M22">
-        <v>1.026459931844587</v>
+        <v>1.068473225980628</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9939764735574651</v>
+        <v>1.052479632527244</v>
       </c>
       <c r="D23">
-        <v>1.016039678661508</v>
+        <v>1.058029383425707</v>
       </c>
       <c r="E23">
-        <v>1.001989286378889</v>
+        <v>1.049311015063496</v>
       </c>
       <c r="F23">
-        <v>1.01367986900131</v>
+        <v>1.065337872428372</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04133570998686</v>
+        <v>1.047162349891784</v>
       </c>
       <c r="J23">
-        <v>1.024317411040749</v>
+        <v>1.05906140371632</v>
       </c>
       <c r="K23">
-        <v>1.030994332187366</v>
+        <v>1.061588667884671</v>
       </c>
       <c r="L23">
-        <v>1.017209537436516</v>
+        <v>1.052902119656789</v>
       </c>
       <c r="M23">
-        <v>1.028678459099256</v>
+        <v>1.06887092532078</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00464376352266</v>
+        <v>1.05436745563753</v>
       </c>
       <c r="D24">
-        <v>1.024585809195778</v>
+        <v>1.059578753265882</v>
       </c>
       <c r="E24">
-        <v>1.010749251551849</v>
+        <v>1.05093463406882</v>
       </c>
       <c r="F24">
-        <v>1.023513252446512</v>
+        <v>1.067170420025739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045390617179885</v>
+        <v>1.047771521146759</v>
       </c>
       <c r="J24">
-        <v>1.03196422001654</v>
+        <v>1.060435982014008</v>
       </c>
       <c r="K24">
-        <v>1.038194501803519</v>
+        <v>1.062868543833719</v>
       </c>
       <c r="L24">
-        <v>1.024590191765245</v>
+        <v>1.054253392890033</v>
       </c>
       <c r="M24">
-        <v>1.037139659033716</v>
+        <v>1.070435193773929</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01637128769731</v>
+        <v>1.056555953691597</v>
       </c>
       <c r="D25">
-        <v>1.034005459289724</v>
+        <v>1.061374675693944</v>
       </c>
       <c r="E25">
-        <v>1.020414858663577</v>
+        <v>1.052817908345904</v>
       </c>
       <c r="F25">
-        <v>1.034361820832429</v>
+        <v>1.069296697072003</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049808143568269</v>
+        <v>1.048471676212391</v>
       </c>
       <c r="J25">
-        <v>1.04035998041857</v>
+        <v>1.06202661899612</v>
       </c>
       <c r="K25">
-        <v>1.046097861359346</v>
+        <v>1.064348942159046</v>
       </c>
       <c r="L25">
-        <v>1.032704315664419</v>
+        <v>1.055817898385703</v>
       </c>
       <c r="M25">
-        <v>1.046449144044448</v>
+        <v>1.072247547588061</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_143/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05829982881462</v>
+        <v>1.025265702246311</v>
       </c>
       <c r="D2">
-        <v>1.062805529706472</v>
+        <v>1.041164926188032</v>
       </c>
       <c r="E2">
-        <v>1.054319396435029</v>
+        <v>1.027769687212939</v>
       </c>
       <c r="F2">
-        <v>1.070992466017058</v>
+        <v>1.042616503231316</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049024709399867</v>
+        <v>1.053123947895774</v>
       </c>
       <c r="J2">
-        <v>1.063291768304709</v>
+        <v>1.046716115751986</v>
       </c>
       <c r="K2">
-        <v>1.065525881468979</v>
+        <v>1.052079078252906</v>
       </c>
       <c r="L2">
-        <v>1.057062934024869</v>
+        <v>1.038855241511173</v>
       </c>
       <c r="M2">
-        <v>1.073690826046026</v>
+        <v>1.053512411144992</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059565133249015</v>
+        <v>1.031485703318352</v>
       </c>
       <c r="D3">
-        <v>1.063843583855984</v>
+        <v>1.046178868786474</v>
       </c>
       <c r="E3">
-        <v>1.055409297003093</v>
+        <v>1.032925418011218</v>
       </c>
       <c r="F3">
-        <v>1.072223708514826</v>
+        <v>1.048403238845372</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049423142949388</v>
+        <v>1.055421745164549</v>
       </c>
       <c r="J3">
-        <v>1.064208366506541</v>
+        <v>1.051153345699836</v>
       </c>
       <c r="K3">
-        <v>1.066378262494624</v>
+        <v>1.056253105187107</v>
       </c>
       <c r="L3">
-        <v>1.057965346930625</v>
+        <v>1.04315365599667</v>
       </c>
       <c r="M3">
-        <v>1.074737511571483</v>
+        <v>1.058452099365774</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060383472150324</v>
+        <v>1.035408585786961</v>
       </c>
       <c r="D4">
-        <v>1.064514882631411</v>
+        <v>1.04934394326826</v>
       </c>
       <c r="E4">
-        <v>1.056114403460226</v>
+        <v>1.036182331165407</v>
       </c>
       <c r="F4">
-        <v>1.073020403565456</v>
+        <v>1.052058972972874</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049679519781438</v>
+        <v>1.056860908185963</v>
       </c>
       <c r="J4">
-        <v>1.064800548694466</v>
+        <v>1.053947946319448</v>
       </c>
       <c r="K4">
-        <v>1.066928812330584</v>
+        <v>1.058881185957814</v>
       </c>
       <c r="L4">
-        <v>1.058548542978494</v>
+        <v>1.045862831621068</v>
       </c>
       <c r="M4">
-        <v>1.075414216735087</v>
+        <v>1.061567209986337</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06072740925537</v>
+        <v>1.037034515592442</v>
       </c>
       <c r="D5">
-        <v>1.064797004348008</v>
+        <v>1.050656393900959</v>
       </c>
       <c r="E5">
-        <v>1.056410800140437</v>
+        <v>1.037533429467687</v>
       </c>
       <c r="F5">
-        <v>1.073355335811716</v>
+        <v>1.053575584870564</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04978695752508</v>
+        <v>1.057454949850932</v>
       </c>
       <c r="J5">
-        <v>1.065049283917758</v>
+        <v>1.055105247498128</v>
       </c>
       <c r="K5">
-        <v>1.067160026081102</v>
+        <v>1.059969337047493</v>
       </c>
       <c r="L5">
-        <v>1.05879354639089</v>
+        <v>1.046985230064323</v>
       </c>
       <c r="M5">
-        <v>1.075698568768252</v>
+        <v>1.06285821342755</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060785152456983</v>
+        <v>1.037306184656747</v>
       </c>
       <c r="D6">
-        <v>1.064844368456689</v>
+        <v>1.0508757192241</v>
       </c>
       <c r="E6">
-        <v>1.056460564728628</v>
+        <v>1.037759246636923</v>
       </c>
       <c r="F6">
-        <v>1.073411572562233</v>
+        <v>1.053829069694655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049804976699489</v>
+        <v>1.057554059977673</v>
       </c>
       <c r="J6">
-        <v>1.065091034910238</v>
+        <v>1.055298556246258</v>
       </c>
       <c r="K6">
-        <v>1.067198834007942</v>
+        <v>1.060151083861891</v>
       </c>
       <c r="L6">
-        <v>1.058834673486236</v>
+        <v>1.047172736521652</v>
       </c>
       <c r="M6">
-        <v>1.075746304870244</v>
+        <v>1.0630739121813</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060388068215194</v>
+        <v>1.035430401447268</v>
       </c>
       <c r="D7">
-        <v>1.064518652716384</v>
+        <v>1.04936155053932</v>
       </c>
       <c r="E7">
-        <v>1.056118364043415</v>
+        <v>1.036200454675346</v>
       </c>
       <c r="F7">
-        <v>1.073024878937642</v>
+        <v>1.052079316382928</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04968095671691</v>
+        <v>1.056868888406877</v>
       </c>
       <c r="J7">
-        <v>1.064803873161908</v>
+        <v>1.053963478188939</v>
       </c>
       <c r="K7">
-        <v>1.066931902751055</v>
+        <v>1.05889579054814</v>
       </c>
       <c r="L7">
-        <v>1.058551817400908</v>
+        <v>1.04587789320466</v>
       </c>
       <c r="M7">
-        <v>1.075418016788457</v>
+        <v>1.061584532396652</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058727528300927</v>
+        <v>1.027389585216904</v>
       </c>
       <c r="D8">
-        <v>1.063156426956003</v>
+        <v>1.042876347051515</v>
       </c>
       <c r="E8">
-        <v>1.054687761718182</v>
+        <v>1.029529017314205</v>
       </c>
       <c r="F8">
-        <v>1.071408571589318</v>
+        <v>1.044591121862939</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049159659752623</v>
+        <v>1.053910636140665</v>
       </c>
       <c r="J8">
-        <v>1.063601728051216</v>
+        <v>1.048232045501675</v>
       </c>
       <c r="K8">
-        <v>1.065814155076808</v>
+        <v>1.053505239743343</v>
       </c>
       <c r="L8">
-        <v>1.057368059783578</v>
+        <v>1.040323320457917</v>
       </c>
       <c r="M8">
-        <v>1.074044677458174</v>
+        <v>1.05519914450668</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055798280867717</v>
+        <v>1.012384868788768</v>
       </c>
       <c r="D9">
-        <v>1.060752944710536</v>
+        <v>1.030800840053808</v>
       </c>
       <c r="E9">
-        <v>1.052165776217299</v>
+        <v>1.01712524202997</v>
       </c>
       <c r="F9">
-        <v>1.068560335779566</v>
+        <v>1.030669693763953</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048230032259354</v>
+        <v>1.048311877095616</v>
       </c>
       <c r="J9">
-        <v>1.061476289313149</v>
+        <v>1.037507739859326</v>
       </c>
       <c r="K9">
-        <v>1.063836834619051</v>
+        <v>1.043413206923722</v>
       </c>
       <c r="L9">
-        <v>1.055276505520702</v>
+        <v>1.029946452702609</v>
       </c>
       <c r="M9">
-        <v>1.071620232053621</v>
+        <v>1.043284029901315</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053843154642078</v>
+        <v>1.00173455920367</v>
       </c>
       <c r="D10">
-        <v>1.05914846583679</v>
+        <v>1.02225293924139</v>
       </c>
       <c r="E10">
-        <v>1.05048362545457</v>
+        <v>1.008357193703427</v>
       </c>
       <c r="F10">
-        <v>1.066661323766711</v>
+        <v>1.020828239422677</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047602810429161</v>
+        <v>1.0442878978423</v>
       </c>
       <c r="J10">
-        <v>1.060054447838836</v>
+        <v>1.029879526192775</v>
       </c>
       <c r="K10">
-        <v>1.062513346522864</v>
+        <v>1.03623170698174</v>
       </c>
       <c r="L10">
-        <v>1.053878261542364</v>
+        <v>1.022577178257301</v>
       </c>
       <c r="M10">
-        <v>1.070000834847552</v>
+        <v>1.034831348185145</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052995981265158</v>
+        <v>0.9969477900296717</v>
       </c>
       <c r="D11">
-        <v>1.058453174997814</v>
+        <v>1.018417950635183</v>
       </c>
       <c r="E11">
-        <v>1.049755016404325</v>
+        <v>1.004426258220744</v>
       </c>
       <c r="F11">
-        <v>1.065838957660855</v>
+        <v>1.016415633157785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047329432996013</v>
+        <v>1.042468266220152</v>
       </c>
       <c r="J11">
-        <v>1.059437592734008</v>
+        <v>1.026448098082101</v>
       </c>
       <c r="K11">
-        <v>1.061938989129665</v>
+        <v>1.033000693691871</v>
       </c>
       <c r="L11">
-        <v>1.053271865792037</v>
+        <v>1.019265181767523</v>
       </c>
       <c r="M11">
-        <v>1.069298857213029</v>
+        <v>1.031034475309714</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052681211232781</v>
+        <v>0.9951413988493523</v>
       </c>
       <c r="D12">
-        <v>1.058194829759054</v>
+        <v>1.016971888898762</v>
       </c>
       <c r="E12">
-        <v>1.049484342428952</v>
+        <v>1.002944434361814</v>
       </c>
       <c r="F12">
-        <v>1.065533479511559</v>
+        <v>1.014752143830841</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047227619014622</v>
+        <v>1.041780002344667</v>
       </c>
       <c r="J12">
-        <v>1.05920828458193</v>
+        <v>1.025152816340318</v>
       </c>
       <c r="K12">
-        <v>1.061725453232273</v>
+        <v>1.031781000980681</v>
       </c>
       <c r="L12">
-        <v>1.05304647919293</v>
+        <v>1.018015440235214</v>
       </c>
       <c r="M12">
-        <v>1.06903799380086</v>
+        <v>1.029602070305707</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052748734695843</v>
+        <v>0.9955301952656643</v>
       </c>
       <c r="D13">
-        <v>1.058250249489782</v>
+        <v>1.017283076010417</v>
       </c>
       <c r="E13">
-        <v>1.049542404584044</v>
+        <v>1.003263298657374</v>
       </c>
       <c r="F13">
-        <v>1.065599006320379</v>
+        <v>1.015110104206169</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047249470668729</v>
+        <v>1.041928210347921</v>
       </c>
       <c r="J13">
-        <v>1.059257480170846</v>
+        <v>1.025431619485855</v>
       </c>
       <c r="K13">
-        <v>1.061771266216671</v>
+        <v>1.032043536495012</v>
       </c>
       <c r="L13">
-        <v>1.053094831941229</v>
+        <v>1.018284420166659</v>
       </c>
       <c r="M13">
-        <v>1.069093955249595</v>
+        <v>1.029910351258507</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052969964174749</v>
+        <v>0.9967990646447148</v>
       </c>
       <c r="D14">
-        <v>1.058431821809929</v>
+        <v>1.018298868025169</v>
       </c>
       <c r="E14">
-        <v>1.049732643158233</v>
+        <v>1.004304222198898</v>
       </c>
       <c r="F14">
-        <v>1.065813707057578</v>
+        <v>1.016278638068242</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04732102252304</v>
+        <v>1.042411631222065</v>
       </c>
       <c r="J14">
-        <v>1.059418641749398</v>
+        <v>1.026341460569225</v>
       </c>
       <c r="K14">
-        <v>1.0619213421543</v>
+        <v>1.032900280416802</v>
       </c>
       <c r="L14">
-        <v>1.053253238218802</v>
+        <v>1.019162284099094</v>
       </c>
       <c r="M14">
-        <v>1.069277296575547</v>
+        <v>1.030916531999506</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.053106258650885</v>
+        <v>0.9975770320326401</v>
       </c>
       <c r="D15">
-        <v>1.05854368341586</v>
+        <v>1.018921824807948</v>
       </c>
       <c r="E15">
-        <v>1.049849850572197</v>
+        <v>1.004942646077387</v>
       </c>
       <c r="F15">
-        <v>1.065945989235688</v>
+        <v>1.016995315445879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047365072247827</v>
+        <v>1.042707819054975</v>
       </c>
       <c r="J15">
-        <v>1.059517914707541</v>
+        <v>1.02689925652067</v>
       </c>
       <c r="K15">
-        <v>1.062013783129237</v>
+        <v>1.033425516384786</v>
       </c>
       <c r="L15">
-        <v>1.0533508183855</v>
+        <v>1.019700536504197</v>
       </c>
       <c r="M15">
-        <v>1.069390243557461</v>
+        <v>1.03153349948886</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053899366014892</v>
+        <v>1.002048380555181</v>
       </c>
       <c r="D16">
-        <v>1.059194598433305</v>
+        <v>1.022504514221534</v>
       </c>
       <c r="E16">
-        <v>1.050531975884755</v>
+        <v>1.008615120793063</v>
       </c>
       <c r="F16">
-        <v>1.066715899566037</v>
+        <v>1.02111775989399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047620915863902</v>
+        <v>1.044406969849278</v>
       </c>
       <c r="J16">
-        <v>1.060095361258713</v>
+        <v>1.030104437074629</v>
       </c>
       <c r="K16">
-        <v>1.062551437633748</v>
+        <v>1.036443472170626</v>
       </c>
       <c r="L16">
-        <v>1.053918485914416</v>
+        <v>1.022794323474301</v>
       </c>
       <c r="M16">
-        <v>1.070047406416303</v>
+        <v>1.035080325185419</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054396700764739</v>
+        <v>1.004804865083701</v>
       </c>
       <c r="D17">
-        <v>1.059602754003413</v>
+        <v>1.024715041258077</v>
       </c>
       <c r="E17">
-        <v>1.050959792920843</v>
+        <v>1.010881781288167</v>
       </c>
       <c r="F17">
-        <v>1.067198820401245</v>
+        <v>1.023662010164533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047780920824021</v>
+        <v>1.045451607955935</v>
       </c>
       <c r="J17">
-        <v>1.060457258540783</v>
+        <v>1.032079643441453</v>
       </c>
       <c r="K17">
-        <v>1.062888350493731</v>
+        <v>1.038303172481182</v>
       </c>
       <c r="L17">
-        <v>1.054274313869271</v>
+        <v>1.024701666202134</v>
       </c>
       <c r="M17">
-        <v>1.070459420099469</v>
+        <v>1.037267499782927</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054686730932832</v>
+        <v>1.006395929971318</v>
       </c>
       <c r="D18">
-        <v>1.05984077218973</v>
+        <v>1.025991613293719</v>
       </c>
       <c r="E18">
-        <v>1.051209309631522</v>
+        <v>1.012191037219792</v>
       </c>
       <c r="F18">
-        <v>1.067480492275732</v>
+        <v>1.025131566641882</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047874076736605</v>
+        <v>1.046053532823404</v>
       </c>
       <c r="J18">
-        <v>1.060668232590141</v>
+        <v>1.033219465509409</v>
       </c>
       <c r="K18">
-        <v>1.063084742858169</v>
+        <v>1.039376288702784</v>
       </c>
       <c r="L18">
-        <v>1.054481771068648</v>
+        <v>1.025802603959457</v>
       </c>
       <c r="M18">
-        <v>1.070699666769242</v>
+        <v>1.038530152657271</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054785614195624</v>
+        <v>1.006935660817185</v>
       </c>
       <c r="D19">
-        <v>1.059921921471272</v>
+        <v>1.026424764663096</v>
       </c>
       <c r="E19">
-        <v>1.051294384758562</v>
+        <v>1.012635324004128</v>
       </c>
       <c r="F19">
-        <v>1.067576533879623</v>
+        <v>1.025630244389125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047905811306888</v>
+        <v>1.046257541487372</v>
       </c>
       <c r="J19">
-        <v>1.060740149930533</v>
+        <v>1.033606072649456</v>
       </c>
       <c r="K19">
-        <v>1.063151686739307</v>
+        <v>1.039740261218733</v>
       </c>
       <c r="L19">
-        <v>1.054552493197638</v>
+        <v>1.026176068898661</v>
       </c>
       <c r="M19">
-        <v>1.070781572202055</v>
+        <v>1.03895850833486</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054343347351132</v>
+        <v>1.004510866719925</v>
       </c>
       <c r="D20">
-        <v>1.059558968172984</v>
+        <v>1.024479205956569</v>
       </c>
       <c r="E20">
-        <v>1.050913894465241</v>
+        <v>1.010639929581825</v>
       </c>
       <c r="F20">
-        <v>1.067147008379681</v>
+        <v>1.023390544016928</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047763771633393</v>
+        <v>1.045340298377191</v>
       </c>
       <c r="J20">
-        <v>1.060418442248569</v>
+        <v>1.031869002664562</v>
       </c>
       <c r="K20">
-        <v>1.062852215691141</v>
+        <v>1.03810485476671</v>
       </c>
       <c r="L20">
-        <v>1.054236146348346</v>
+        <v>1.024498233659415</v>
       </c>
       <c r="M20">
-        <v>1.070415222596185</v>
+        <v>1.037034201035504</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052904820177165</v>
+        <v>0.9964262150921221</v>
       </c>
       <c r="D21">
-        <v>1.058378355601791</v>
+        <v>1.018000350933637</v>
       </c>
       <c r="E21">
-        <v>1.04967662365388</v>
+        <v>1.003998308154654</v>
       </c>
       <c r="F21">
-        <v>1.065750483469658</v>
+        <v>1.015935223764726</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047299959731523</v>
+        <v>1.042269623918805</v>
       </c>
       <c r="J21">
-        <v>1.059371188686987</v>
+        <v>1.026074118436709</v>
       </c>
       <c r="K21">
-        <v>1.061877153901822</v>
+        <v>1.032648541609785</v>
       </c>
       <c r="L21">
-        <v>1.053206595515115</v>
+        <v>1.01890432523703</v>
       </c>
       <c r="M21">
-        <v>1.069223310391195</v>
+        <v>1.03062085931016</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051999826402817</v>
+        <v>0.9911777374500315</v>
       </c>
       <c r="D22">
-        <v>1.057635574887797</v>
+        <v>1.013801151757812</v>
       </c>
       <c r="E22">
-        <v>1.048898492299277</v>
+        <v>0.9996960414427247</v>
       </c>
       <c r="F22">
-        <v>1.064872346161674</v>
+        <v>1.01110530915185</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047006783407008</v>
+        <v>1.040266949770718</v>
       </c>
       <c r="J22">
-        <v>1.058711692253058</v>
+        <v>1.022310092291099</v>
       </c>
       <c r="K22">
-        <v>1.061262970534694</v>
+        <v>1.029104074998407</v>
       </c>
       <c r="L22">
-        <v>1.052558440669093</v>
+        <v>1.015273522217302</v>
       </c>
       <c r="M22">
-        <v>1.068473225980628</v>
+        <v>1.02645993184459</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052479632527244</v>
+        <v>0.993976473557465</v>
       </c>
       <c r="D23">
-        <v>1.058029383425707</v>
+        <v>1.016039678661508</v>
       </c>
       <c r="E23">
-        <v>1.049311015063496</v>
+        <v>1.001989286378889</v>
       </c>
       <c r="F23">
-        <v>1.065337872428372</v>
+        <v>1.01367986900131</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047162349891784</v>
+        <v>1.04133570998686</v>
       </c>
       <c r="J23">
-        <v>1.05906140371632</v>
+        <v>1.024317411040748</v>
       </c>
       <c r="K23">
-        <v>1.061588667884671</v>
+        <v>1.030994332187366</v>
       </c>
       <c r="L23">
-        <v>1.052902119656789</v>
+        <v>1.017209537436516</v>
       </c>
       <c r="M23">
-        <v>1.06887092532078</v>
+        <v>1.028678459099256</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05436745563753</v>
+        <v>1.00464376352266</v>
       </c>
       <c r="D24">
-        <v>1.059578753265882</v>
+        <v>1.024585809195778</v>
       </c>
       <c r="E24">
-        <v>1.05093463406882</v>
+        <v>1.010749251551849</v>
       </c>
       <c r="F24">
-        <v>1.067170420025739</v>
+        <v>1.023513252446512</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047771521146759</v>
+        <v>1.045390617179885</v>
       </c>
       <c r="J24">
-        <v>1.060435982014008</v>
+        <v>1.03196422001654</v>
       </c>
       <c r="K24">
-        <v>1.062868543833719</v>
+        <v>1.038194501803519</v>
       </c>
       <c r="L24">
-        <v>1.054253392890033</v>
+        <v>1.024590191765245</v>
       </c>
       <c r="M24">
-        <v>1.070435193773929</v>
+        <v>1.037139659033716</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056555953691597</v>
+        <v>1.016371287697309</v>
       </c>
       <c r="D25">
-        <v>1.061374675693944</v>
+        <v>1.034005459289723</v>
       </c>
       <c r="E25">
-        <v>1.052817908345904</v>
+        <v>1.020414858663577</v>
       </c>
       <c r="F25">
-        <v>1.069296697072003</v>
+        <v>1.034361820832428</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048471676212391</v>
+        <v>1.049808143568269</v>
       </c>
       <c r="J25">
-        <v>1.06202661899612</v>
+        <v>1.040359980418569</v>
       </c>
       <c r="K25">
-        <v>1.064348942159046</v>
+        <v>1.046097861359345</v>
       </c>
       <c r="L25">
-        <v>1.055817898385703</v>
+        <v>1.032704315664418</v>
       </c>
       <c r="M25">
-        <v>1.072247547588061</v>
+        <v>1.046449144044447</v>
       </c>
     </row>
   </sheetData>
